--- a/src/xlsx/koa/KOACATALOGOPRODUCTOS.xlsx
+++ b/src/xlsx/koa/KOACATALOGOPRODUCTOS.xlsx
@@ -1,11 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="25825"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="11113"/>
   <workbookPr defaultThemeVersion="166925"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{D1160838-B8E7-4AF2-B0BA-C1CF8482B29A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/sernar/GITHUB/vmlyr/trade/src/xlsx/koa/"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C6ED1CF3-7C03-BA4F-B2CB-EEF242929062}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="30240" yWindow="3400" windowWidth="27200" windowHeight="14860" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -43,73 +48,73 @@
   <commentList>
     <comment ref="A1" authorId="0" shapeId="0" xr:uid="{6E3520AD-22B9-4C13-97A8-95F9EABDD220}">
       <text>
-        <t>[Threaded comment]
-Your version of Excel allows you to read this threaded comment; however, any edits to it will get removed if the file is opened in a newer version of Excel. Learn more: https://go.microsoft.com/fwlink/?linkid=870924
-Comment:
+        <t>[Comentario encadenado]
+Su versión de Excel le permite leer este comentario encadenado; sin embargo, las ediciones que se apliquen se quitarán si el archivo se abre en una versión más reciente de Excel. Más información: https://go.microsoft.com/fwlink/?linkid=870924
+Comentario:
     usar el mismo titulo para KOA Y KOE</t>
       </text>
     </comment>
     <comment ref="B1" authorId="1" shapeId="0" xr:uid="{A3B8255A-1743-4862-B744-95A024BF65A5}">
       <text>
-        <t>[Threaded comment]
-Your version of Excel allows you to read this threaded comment; however, any edits to it will get removed if the file is opened in a newer version of Excel. Learn more: https://go.microsoft.com/fwlink/?linkid=870924
-Comment:
+        <t>[Comentario encadenado]
+Su versión de Excel le permite leer este comentario encadenado; sin embargo, las ediciones que se apliquen se quitarán si el archivo se abre en una versión más reciente de Excel. Más información: https://go.microsoft.com/fwlink/?linkid=870924
+Comentario:
     usar el mismo titulo para KOA Y KOE</t>
       </text>
     </comment>
     <comment ref="C1" authorId="2" shapeId="0" xr:uid="{B22F7E10-818E-4AA8-9ED6-DCE5F4C19313}">
       <text>
-        <t>[Threaded comment]
-Your version of Excel allows you to read this threaded comment; however, any edits to it will get removed if the file is opened in a newer version of Excel. Learn more: https://go.microsoft.com/fwlink/?linkid=870924
-Comment:
+        <t>[Comentario encadenado]
+Su versión de Excel le permite leer este comentario encadenado; sin embargo, las ediciones que se apliquen se quitarán si el archivo se abre en una versión más reciente de Excel. Más información: https://go.microsoft.com/fwlink/?linkid=870924
+Comentario:
     usar el mismo titulo para KOA Y KOE</t>
       </text>
     </comment>
     <comment ref="D1" authorId="3" shapeId="0" xr:uid="{04F974D0-D712-4A78-80D9-7D02E8CEB066}">
       <text>
-        <t>[Threaded comment]
-Your version of Excel allows you to read this threaded comment; however, any edits to it will get removed if the file is opened in a newer version of Excel. Learn more: https://go.microsoft.com/fwlink/?linkid=870924
-Comment:
+        <t>[Comentario encadenado]
+Su versión de Excel le permite leer este comentario encadenado; sin embargo, las ediciones que se apliquen se quitarán si el archivo se abre en una versión más reciente de Excel. Más información: https://go.microsoft.com/fwlink/?linkid=870924
+Comentario:
     usar el mismo titulo para KOA Y KOE</t>
       </text>
     </comment>
     <comment ref="E1" authorId="4" shapeId="0" xr:uid="{AFEB22E1-F533-4479-ABDD-ED380AE07194}">
       <text>
-        <t>[Threaded comment]
-Your version of Excel allows you to read this threaded comment; however, any edits to it will get removed if the file is opened in a newer version of Excel. Learn more: https://go.microsoft.com/fwlink/?linkid=870924
-Comment:
+        <t>[Comentario encadenado]
+Su versión de Excel le permite leer este comentario encadenado; sin embargo, las ediciones que se apliquen se quitarán si el archivo se abre en una versión más reciente de Excel. Más información: https://go.microsoft.com/fwlink/?linkid=870924
+Comentario:
     usar el mismo titulo para KOA Y KOE</t>
       </text>
     </comment>
     <comment ref="F1" authorId="5" shapeId="0" xr:uid="{982E1934-C3EC-4F40-9E84-C9DD2CC1D052}">
       <text>
-        <t>[Threaded comment]
-Your version of Excel allows you to read this threaded comment; however, any edits to it will get removed if the file is opened in a newer version of Excel. Learn more: https://go.microsoft.com/fwlink/?linkid=870924
-Comment:
+        <t>[Comentario encadenado]
+Su versión de Excel le permite leer este comentario encadenado; sin embargo, las ediciones que se apliquen se quitarán si el archivo se abre en una versión más reciente de Excel. Más información: https://go.microsoft.com/fwlink/?linkid=870924
+Comentario:
     usar el mismo titulo para KOA Y KOE</t>
       </text>
     </comment>
     <comment ref="G1" authorId="6" shapeId="0" xr:uid="{60FC5E98-9FD7-4998-B209-1A66AEDCED3A}">
       <text>
-        <t>[Threaded comment]
-Your version of Excel allows you to read this threaded comment; however, any edits to it will get removed if the file is opened in a newer version of Excel. Learn more: https://go.microsoft.com/fwlink/?linkid=870924
-Comment:
+        <t>[Comentario encadenado]
+Su versión de Excel le permite leer este comentario encadenado; sin embargo, las ediciones que se apliquen se quitarán si el archivo se abre en una versión más reciente de Excel. Más información: https://go.microsoft.com/fwlink/?linkid=870924
+Comentario:
     titulo para KOA y KOE: COD KOA</t>
       </text>
     </comment>
     <comment ref="H1" authorId="7" shapeId="0" xr:uid="{942902E1-D249-4EE5-88D8-DB04B0FBE93E}">
       <text>
-        <t>[Threaded comment]
-Your version of Excel allows you to read this threaded comment; however, any edits to it will get removed if the file is opened in a newer version of Excel. Learn more: https://go.microsoft.com/fwlink/?linkid=870924
-Comment:
+        <t>[Comentario encadenado]
+Su versión de Excel le permite leer este comentario encadenado; sin embargo, las ediciones que se apliquen se quitarán si el archivo se abre en una versión más reciente de Excel. Más información: https://go.microsoft.com/fwlink/?linkid=870924
+Comentario:
     usar el mismo titulo para KOA Y KOE</t>
       </text>
     </comment>
     <comment ref="I1" authorId="8" shapeId="0" xr:uid="{71B50A8F-A485-469E-BD13-335EB1CB5ECB}">
       <text>
-        <t>[Threaded comment]
-Your version of Excel allows you to read this threaded comment; however, any edits to it will get removed if the file is opened in a newer version of Excel. Learn more: https://go.microsoft.com/fwlink/?linkid=870924
-Comment:
+        <t>[Comentario encadenado]
+Su versión de Excel le permite leer este comentario encadenado; sin embargo, las ediciones que se apliquen se quitarán si el archivo se abre en una versión más reciente de Excel. Más información: https://go.microsoft.com/fwlink/?linkid=870924
+Comentario:
     usar el mismo titulo para KOA Y KOE</t>
       </text>
     </comment>
@@ -118,7 +123,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="325" uniqueCount="156">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="339" uniqueCount="160">
   <si>
     <t>MARCA</t>
   </si>
@@ -586,6 +591,18 @@
   </si>
   <si>
     <t>https://res.cloudinary.com/dkktirn06/image/upload/v1662062074/LOW%20RES%20SPMK%20CATALOG/Stella-Artois-KEG-30-x1_a0qx8h.png</t>
+  </si>
+  <si>
+    <t>BECKER GOLDEN LATA 473 X6</t>
+  </si>
+  <si>
+    <t>https://res.cloudinary.com/dkktirn06/image/upload/v1668800637/LOW%20RES%20SPMK%20CATALOG/BECKER-GOLDEN-LATA-473-X6_qzt6rn.png</t>
+  </si>
+  <si>
+    <t>BECKER GOLDEN LATA 473</t>
+  </si>
+  <si>
+    <t>https://res.cloudinary.com/dkktirn06/image/upload/v1668798717/LOW%20RES%20SPMK%20CATALOG/unitario-becker-golden_unok7b.png</t>
   </si>
 </sst>
 </file>
@@ -593,9 +610,9 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="1">
-    <numFmt numFmtId="43" formatCode="_(* #,##0.00_);_(* \(#,##0.00\);_(* &quot;-&quot;??_);_(@_)"/>
+    <numFmt numFmtId="164" formatCode="_(* #,##0.00_);_(* \(#,##0.00\);_(* &quot;-&quot;??_);_(@_)"/>
   </numFmts>
-  <fonts count="7">
+  <fonts count="9" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -645,6 +662,20 @@
       <color theme="1"/>
       <name val="Calibri"/>
       <charset val="1"/>
+    </font>
+    <font>
+      <sz val="9"/>
+      <color rgb="FF000000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="8"/>
+      <color rgb="FF000000"/>
+      <name val="Calibri"/>
+      <charset val="1"/>
+      <scheme val="minor"/>
     </font>
   </fonts>
   <fills count="3">
@@ -714,10 +745,10 @@
   </borders>
   <cellStyleXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="43" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="164" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="18">
+  <cellXfs count="20">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -768,10 +799,16 @@
     <xf numFmtId="0" fontId="5" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" readingOrder="1"/>
     </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" readingOrder="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="3">
-    <cellStyle name="Comma" xfId="1" builtinId="3"/>
-    <cellStyle name="Hyperlink" xfId="2" builtinId="8"/>
+    <cellStyle name="Hipervínculo" xfId="2" builtinId="8"/>
+    <cellStyle name="Millares" xfId="1" builtinId="3"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -794,7 +831,7 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Tema de Office">
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
@@ -1124,23 +1161,23 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:I315"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="I1" workbookViewId="0">
-      <selection activeCell="I1" sqref="I1"/>
+    <sheetView tabSelected="1" topLeftCell="A50" workbookViewId="0">
+      <selection activeCell="A64" sqref="A64:I65"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="10.85546875" defaultRowHeight="12"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="10.83203125" defaultRowHeight="12" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="2" width="14" style="1" customWidth="1"/>
-    <col min="3" max="4" width="9.140625" style="1"/>
-    <col min="5" max="5" width="29.5703125" style="2" customWidth="1"/>
-    <col min="6" max="6" width="9.140625" style="1"/>
-    <col min="7" max="7" width="14.5703125" style="1" customWidth="1"/>
-    <col min="8" max="8" width="9.42578125" style="1" customWidth="1"/>
-    <col min="9" max="9" width="129.7109375" style="3" customWidth="1"/>
-    <col min="10" max="16384" width="10.85546875" style="1"/>
+    <col min="3" max="4" width="9.1640625" style="1"/>
+    <col min="5" max="5" width="29.5" style="2" customWidth="1"/>
+    <col min="6" max="6" width="9.1640625" style="1"/>
+    <col min="7" max="7" width="14.5" style="1" customWidth="1"/>
+    <col min="8" max="8" width="9.5" style="1" customWidth="1"/>
+    <col min="9" max="9" width="129.6640625" style="3" customWidth="1"/>
+    <col min="10" max="16384" width="10.83203125" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" ht="24.75">
+    <row r="1" spans="1:9" ht="26" x14ac:dyDescent="0.15">
       <c r="A1" s="4" t="s">
         <v>0</v>
       </c>
@@ -1169,7 +1206,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="2" spans="1:9" ht="15">
+    <row r="2" spans="1:9" ht="15" x14ac:dyDescent="0.2">
       <c r="A2" s="1" t="s">
         <v>9</v>
       </c>
@@ -1198,7 +1235,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="3" spans="1:9" ht="15">
+    <row r="3" spans="1:9" ht="15" x14ac:dyDescent="0.2">
       <c r="A3" s="1" t="s">
         <v>9</v>
       </c>
@@ -1227,7 +1264,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="4" spans="1:9" ht="15">
+    <row r="4" spans="1:9" ht="15" x14ac:dyDescent="0.2">
       <c r="A4" s="1" t="s">
         <v>18</v>
       </c>
@@ -1256,7 +1293,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="5" spans="1:9" ht="15">
+    <row r="5" spans="1:9" ht="15" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>18</v>
       </c>
@@ -1285,7 +1322,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="6" spans="1:9" ht="15">
+    <row r="6" spans="1:9" ht="15" x14ac:dyDescent="0.2">
       <c r="A6" s="1" t="s">
         <v>18</v>
       </c>
@@ -1314,7 +1351,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="7" spans="1:9" ht="15">
+    <row r="7" spans="1:9" ht="15" x14ac:dyDescent="0.2">
       <c r="A7" s="1" t="s">
         <v>18</v>
       </c>
@@ -1343,7 +1380,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="8" spans="1:9" ht="15">
+    <row r="8" spans="1:9" ht="15" x14ac:dyDescent="0.2">
       <c r="A8" s="1" t="s">
         <v>18</v>
       </c>
@@ -1372,7 +1409,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="9" spans="1:9" ht="15">
+    <row r="9" spans="1:9" ht="15" x14ac:dyDescent="0.2">
       <c r="A9" s="1" t="s">
         <v>18</v>
       </c>
@@ -1401,7 +1438,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="10" spans="1:9" ht="15">
+    <row r="10" spans="1:9" ht="15" x14ac:dyDescent="0.2">
       <c r="A10" s="1" t="s">
         <v>33</v>
       </c>
@@ -1430,7 +1467,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="11" spans="1:9" ht="15">
+    <row r="11" spans="1:9" ht="15" x14ac:dyDescent="0.2">
       <c r="A11" s="1" t="s">
         <v>37</v>
       </c>
@@ -1459,7 +1496,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="12" spans="1:9" ht="15">
+    <row r="12" spans="1:9" ht="15" x14ac:dyDescent="0.2">
       <c r="A12" s="1" t="s">
         <v>41</v>
       </c>
@@ -1488,7 +1525,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="13" spans="1:9" ht="15">
+    <row r="13" spans="1:9" ht="15" x14ac:dyDescent="0.2">
       <c r="A13" s="1" t="s">
         <v>41</v>
       </c>
@@ -1517,7 +1554,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="14" spans="1:9" ht="15">
+    <row r="14" spans="1:9" ht="15" x14ac:dyDescent="0.2">
       <c r="A14" s="1" t="s">
         <v>41</v>
       </c>
@@ -1546,7 +1583,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="15" spans="1:9" ht="15">
+    <row r="15" spans="1:9" ht="15" x14ac:dyDescent="0.2">
       <c r="A15" s="1" t="s">
         <v>41</v>
       </c>
@@ -1575,7 +1612,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="16" spans="1:9" ht="15">
+    <row r="16" spans="1:9" ht="15" x14ac:dyDescent="0.2">
       <c r="A16" s="1" t="s">
         <v>50</v>
       </c>
@@ -1604,7 +1641,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="17" spans="1:9" ht="15">
+    <row r="17" spans="1:9" ht="15" x14ac:dyDescent="0.2">
       <c r="A17" s="1" t="s">
         <v>50</v>
       </c>
@@ -1633,7 +1670,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="18" spans="1:9" ht="15">
+    <row r="18" spans="1:9" ht="15" x14ac:dyDescent="0.2">
       <c r="A18" s="1" t="s">
         <v>50</v>
       </c>
@@ -1662,7 +1699,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="19" spans="1:9" ht="15">
+    <row r="19" spans="1:9" ht="15" x14ac:dyDescent="0.2">
       <c r="A19" s="1" t="s">
         <v>50</v>
       </c>
@@ -1691,7 +1728,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="20" spans="1:9" ht="15">
+    <row r="20" spans="1:9" ht="15" x14ac:dyDescent="0.2">
       <c r="A20" s="1" t="s">
         <v>60</v>
       </c>
@@ -1720,7 +1757,7 @@
         <v>62</v>
       </c>
     </row>
-    <row r="21" spans="1:9" ht="15">
+    <row r="21" spans="1:9" ht="15" x14ac:dyDescent="0.2">
       <c r="A21" s="1" t="s">
         <v>60</v>
       </c>
@@ -1749,7 +1786,7 @@
         <v>64</v>
       </c>
     </row>
-    <row r="22" spans="1:9" ht="15">
+    <row r="22" spans="1:9" ht="15" x14ac:dyDescent="0.2">
       <c r="A22" s="1" t="s">
         <v>60</v>
       </c>
@@ -1778,7 +1815,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="23" spans="1:9" ht="15">
+    <row r="23" spans="1:9" ht="15" x14ac:dyDescent="0.2">
       <c r="A23" s="1" t="s">
         <v>60</v>
       </c>
@@ -1807,7 +1844,7 @@
         <v>68</v>
       </c>
     </row>
-    <row r="24" spans="1:9" ht="15">
+    <row r="24" spans="1:9" ht="15" x14ac:dyDescent="0.2">
       <c r="A24" s="1" t="s">
         <v>60</v>
       </c>
@@ -1836,7 +1873,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="25" spans="1:9" ht="15">
+    <row r="25" spans="1:9" ht="15" x14ac:dyDescent="0.2">
       <c r="A25" s="1" t="s">
         <v>60</v>
       </c>
@@ -1865,7 +1902,7 @@
         <v>72</v>
       </c>
     </row>
-    <row r="26" spans="1:9" ht="15">
+    <row r="26" spans="1:9" ht="15" x14ac:dyDescent="0.2">
       <c r="A26" s="1" t="s">
         <v>73</v>
       </c>
@@ -1894,7 +1931,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="27" spans="1:9" ht="15">
+    <row r="27" spans="1:9" ht="15" x14ac:dyDescent="0.2">
       <c r="A27" s="1" t="s">
         <v>76</v>
       </c>
@@ -1923,7 +1960,7 @@
         <v>78</v>
       </c>
     </row>
-    <row r="28" spans="1:9" ht="15">
+    <row r="28" spans="1:9" ht="15" x14ac:dyDescent="0.2">
       <c r="A28" s="1" t="s">
         <v>76</v>
       </c>
@@ -1952,7 +1989,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="29" spans="1:9" ht="15">
+    <row r="29" spans="1:9" ht="15" x14ac:dyDescent="0.2">
       <c r="A29" s="1" t="s">
         <v>76</v>
       </c>
@@ -1981,7 +2018,7 @@
         <v>82</v>
       </c>
     </row>
-    <row r="30" spans="1:9" ht="15">
+    <row r="30" spans="1:9" ht="15" x14ac:dyDescent="0.2">
       <c r="A30" s="1" t="s">
         <v>83</v>
       </c>
@@ -2010,7 +2047,7 @@
         <v>85</v>
       </c>
     </row>
-    <row r="31" spans="1:9" ht="15">
+    <row r="31" spans="1:9" ht="15" x14ac:dyDescent="0.2">
       <c r="A31" s="1" t="s">
         <v>83</v>
       </c>
@@ -2039,7 +2076,7 @@
         <v>87</v>
       </c>
     </row>
-    <row r="32" spans="1:9" ht="15">
+    <row r="32" spans="1:9" ht="15" x14ac:dyDescent="0.2">
       <c r="A32" s="1" t="s">
         <v>83</v>
       </c>
@@ -2068,7 +2105,7 @@
         <v>89</v>
       </c>
     </row>
-    <row r="33" spans="1:9" ht="15">
+    <row r="33" spans="1:9" ht="15" x14ac:dyDescent="0.2">
       <c r="A33" s="1" t="s">
         <v>83</v>
       </c>
@@ -2097,7 +2134,7 @@
         <v>91</v>
       </c>
     </row>
-    <row r="34" spans="1:9" ht="15">
+    <row r="34" spans="1:9" ht="15" x14ac:dyDescent="0.2">
       <c r="A34" s="1" t="s">
         <v>83</v>
       </c>
@@ -2126,7 +2163,7 @@
         <v>93</v>
       </c>
     </row>
-    <row r="35" spans="1:9" ht="15">
+    <row r="35" spans="1:9" ht="15" x14ac:dyDescent="0.2">
       <c r="A35" s="1" t="s">
         <v>83</v>
       </c>
@@ -2155,7 +2192,7 @@
         <v>95</v>
       </c>
     </row>
-    <row r="36" spans="1:9" ht="15">
+    <row r="36" spans="1:9" ht="15" x14ac:dyDescent="0.2">
       <c r="A36" s="1" t="s">
         <v>96</v>
       </c>
@@ -2184,7 +2221,7 @@
         <v>98</v>
       </c>
     </row>
-    <row r="37" spans="1:9" ht="15">
+    <row r="37" spans="1:9" ht="15" x14ac:dyDescent="0.2">
       <c r="A37" s="1" t="s">
         <v>99</v>
       </c>
@@ -2213,7 +2250,7 @@
         <v>101</v>
       </c>
     </row>
-    <row r="38" spans="1:9" ht="15">
+    <row r="38" spans="1:9" ht="15" x14ac:dyDescent="0.2">
       <c r="A38" s="1" t="s">
         <v>102</v>
       </c>
@@ -2242,7 +2279,7 @@
         <v>104</v>
       </c>
     </row>
-    <row r="39" spans="1:9" ht="15">
+    <row r="39" spans="1:9" ht="15" x14ac:dyDescent="0.2">
       <c r="A39" s="1" t="s">
         <v>102</v>
       </c>
@@ -2271,7 +2308,7 @@
         <v>106</v>
       </c>
     </row>
-    <row r="40" spans="1:9" ht="15">
+    <row r="40" spans="1:9" ht="15" x14ac:dyDescent="0.2">
       <c r="A40" s="1" t="s">
         <v>102</v>
       </c>
@@ -2300,7 +2337,7 @@
         <v>108</v>
       </c>
     </row>
-    <row r="41" spans="1:9" ht="15">
+    <row r="41" spans="1:9" ht="15" x14ac:dyDescent="0.2">
       <c r="A41" s="1" t="s">
         <v>102</v>
       </c>
@@ -2329,7 +2366,7 @@
         <v>110</v>
       </c>
     </row>
-    <row r="42" spans="1:9" ht="15">
+    <row r="42" spans="1:9" ht="15" x14ac:dyDescent="0.2">
       <c r="A42" s="1" t="s">
         <v>111</v>
       </c>
@@ -2358,7 +2395,7 @@
         <v>113</v>
       </c>
     </row>
-    <row r="43" spans="1:9" ht="15">
+    <row r="43" spans="1:9" ht="15" x14ac:dyDescent="0.2">
       <c r="A43" s="1" t="s">
         <v>111</v>
       </c>
@@ -2387,7 +2424,7 @@
         <v>115</v>
       </c>
     </row>
-    <row r="44" spans="1:9" ht="15">
+    <row r="44" spans="1:9" ht="15" x14ac:dyDescent="0.2">
       <c r="A44" s="1" t="s">
         <v>116</v>
       </c>
@@ -2416,7 +2453,7 @@
         <v>118</v>
       </c>
     </row>
-    <row r="45" spans="1:9" ht="15">
+    <row r="45" spans="1:9" ht="15" x14ac:dyDescent="0.2">
       <c r="A45" s="1" t="s">
         <v>119</v>
       </c>
@@ -2445,7 +2482,7 @@
         <v>121</v>
       </c>
     </row>
-    <row r="46" spans="1:9" ht="15">
+    <row r="46" spans="1:9" ht="15" x14ac:dyDescent="0.2">
       <c r="A46" s="1" t="s">
         <v>119</v>
       </c>
@@ -2474,7 +2511,7 @@
         <v>123</v>
       </c>
     </row>
-    <row r="47" spans="1:9" ht="15">
+    <row r="47" spans="1:9" ht="15" x14ac:dyDescent="0.2">
       <c r="A47" s="1" t="s">
         <v>119</v>
       </c>
@@ -2503,7 +2540,7 @@
         <v>123</v>
       </c>
     </row>
-    <row r="48" spans="1:9" ht="15">
+    <row r="48" spans="1:9" ht="15" x14ac:dyDescent="0.2">
       <c r="A48" s="1" t="s">
         <v>119</v>
       </c>
@@ -2532,7 +2569,7 @@
         <v>125</v>
       </c>
     </row>
-    <row r="49" spans="1:9" ht="15">
+    <row r="49" spans="1:9" ht="15" x14ac:dyDescent="0.2">
       <c r="A49" s="1" t="s">
         <v>119</v>
       </c>
@@ -2561,7 +2598,7 @@
         <v>125</v>
       </c>
     </row>
-    <row r="50" spans="1:9" ht="15">
+    <row r="50" spans="1:9" ht="15" x14ac:dyDescent="0.2">
       <c r="A50" s="1" t="s">
         <v>119</v>
       </c>
@@ -2590,7 +2627,7 @@
         <v>128</v>
       </c>
     </row>
-    <row r="51" spans="1:9" ht="15">
+    <row r="51" spans="1:9" ht="15" x14ac:dyDescent="0.2">
       <c r="A51" s="1" t="s">
         <v>119</v>
       </c>
@@ -2619,7 +2656,7 @@
         <v>130</v>
       </c>
     </row>
-    <row r="52" spans="1:9" ht="15">
+    <row r="52" spans="1:9" ht="15" x14ac:dyDescent="0.2">
       <c r="A52" s="1" t="s">
         <v>119</v>
       </c>
@@ -2648,7 +2685,7 @@
         <v>132</v>
       </c>
     </row>
-    <row r="53" spans="1:9" ht="15">
+    <row r="53" spans="1:9" ht="15" x14ac:dyDescent="0.2">
       <c r="A53" s="1" t="s">
         <v>119</v>
       </c>
@@ -2677,7 +2714,7 @@
         <v>134</v>
       </c>
     </row>
-    <row r="54" spans="1:9" ht="15">
+    <row r="54" spans="1:9" ht="15" x14ac:dyDescent="0.2">
       <c r="A54" s="1" t="s">
         <v>18</v>
       </c>
@@ -2706,7 +2743,7 @@
         <v>137</v>
       </c>
     </row>
-    <row r="55" spans="1:9" ht="15">
+    <row r="55" spans="1:9" ht="15" x14ac:dyDescent="0.2">
       <c r="A55" s="1" t="s">
         <v>41</v>
       </c>
@@ -2735,7 +2772,7 @@
         <v>139</v>
       </c>
     </row>
-    <row r="56" spans="1:9" ht="15">
+    <row r="56" spans="1:9" ht="15" x14ac:dyDescent="0.2">
       <c r="A56" s="1" t="s">
         <v>60</v>
       </c>
@@ -2764,7 +2801,7 @@
         <v>141</v>
       </c>
     </row>
-    <row r="57" spans="1:9" ht="15">
+    <row r="57" spans="1:9" ht="15" x14ac:dyDescent="0.2">
       <c r="A57" s="1" t="s">
         <v>73</v>
       </c>
@@ -2793,7 +2830,7 @@
         <v>143</v>
       </c>
     </row>
-    <row r="58" spans="1:9" ht="15">
+    <row r="58" spans="1:9" ht="15" x14ac:dyDescent="0.2">
       <c r="A58" s="1" t="s">
         <v>76</v>
       </c>
@@ -2822,7 +2859,7 @@
         <v>145</v>
       </c>
     </row>
-    <row r="59" spans="1:9" ht="15">
+    <row r="59" spans="1:9" ht="15" x14ac:dyDescent="0.2">
       <c r="A59" s="1" t="s">
         <v>83</v>
       </c>
@@ -2851,7 +2888,7 @@
         <v>147</v>
       </c>
     </row>
-    <row r="60" spans="1:9" ht="15">
+    <row r="60" spans="1:9" ht="15" x14ac:dyDescent="0.2">
       <c r="A60" s="1" t="s">
         <v>83</v>
       </c>
@@ -2880,7 +2917,7 @@
         <v>149</v>
       </c>
     </row>
-    <row r="61" spans="1:9" ht="15">
+    <row r="61" spans="1:9" ht="15" x14ac:dyDescent="0.2">
       <c r="A61" s="1" t="s">
         <v>83</v>
       </c>
@@ -2909,7 +2946,7 @@
         <v>151</v>
       </c>
     </row>
-    <row r="62" spans="1:9" ht="15">
+    <row r="62" spans="1:9" ht="15" x14ac:dyDescent="0.2">
       <c r="A62" s="1" t="s">
         <v>96</v>
       </c>
@@ -2938,7 +2975,7 @@
         <v>153</v>
       </c>
     </row>
-    <row r="63" spans="1:9" ht="15">
+    <row r="63" spans="1:9" ht="15" x14ac:dyDescent="0.2">
       <c r="A63" s="1" t="s">
         <v>119</v>
       </c>
@@ -2967,760 +3004,812 @@
         <v>155</v>
       </c>
     </row>
-    <row r="64" spans="1:9">
-      <c r="E64" s="1"/>
-    </row>
-    <row r="65" spans="5:5">
-      <c r="E65" s="1"/>
-    </row>
-    <row r="66" spans="5:5">
+    <row r="64" spans="1:9" ht="15" x14ac:dyDescent="0.2">
+      <c r="A64" s="18" t="s">
+        <v>18</v>
+      </c>
+      <c r="B64" s="19" t="s">
+        <v>19</v>
+      </c>
+      <c r="C64" s="18" t="s">
+        <v>11</v>
+      </c>
+      <c r="D64" s="18">
+        <v>473</v>
+      </c>
+      <c r="E64" s="18" t="s">
+        <v>156</v>
+      </c>
+      <c r="F64" s="18">
+        <v>5</v>
+      </c>
+      <c r="G64" s="18" t="s">
+        <v>21</v>
+      </c>
+      <c r="H64" s="18" t="s">
+        <v>21</v>
+      </c>
+      <c r="I64" s="11" t="s">
+        <v>157</v>
+      </c>
+    </row>
+    <row r="65" spans="1:9" ht="15" x14ac:dyDescent="0.2">
+      <c r="A65" s="18" t="s">
+        <v>18</v>
+      </c>
+      <c r="B65" s="19" t="s">
+        <v>19</v>
+      </c>
+      <c r="C65" s="18" t="s">
+        <v>11</v>
+      </c>
+      <c r="D65" s="18">
+        <v>473</v>
+      </c>
+      <c r="E65" s="18" t="s">
+        <v>158</v>
+      </c>
+      <c r="F65" s="18">
+        <v>5</v>
+      </c>
+      <c r="G65" s="18" t="s">
+        <v>21</v>
+      </c>
+      <c r="H65" s="18" t="s">
+        <v>21</v>
+      </c>
+      <c r="I65" s="11" t="s">
+        <v>159</v>
+      </c>
+    </row>
+    <row r="66" spans="1:9" x14ac:dyDescent="0.2">
       <c r="E66" s="1"/>
     </row>
-    <row r="67" spans="5:5">
+    <row r="67" spans="1:9" x14ac:dyDescent="0.2">
       <c r="E67" s="1"/>
     </row>
-    <row r="68" spans="5:5">
+    <row r="68" spans="1:9" x14ac:dyDescent="0.2">
       <c r="E68" s="1"/>
     </row>
-    <row r="69" spans="5:5">
+    <row r="69" spans="1:9" x14ac:dyDescent="0.2">
       <c r="E69" s="1"/>
     </row>
-    <row r="70" spans="5:5">
+    <row r="70" spans="1:9" x14ac:dyDescent="0.2">
       <c r="E70" s="1"/>
     </row>
-    <row r="71" spans="5:5" ht="15">
+    <row r="71" spans="1:9" ht="15" x14ac:dyDescent="0.2">
       <c r="E71"/>
     </row>
-    <row r="72" spans="5:5">
+    <row r="72" spans="1:9" x14ac:dyDescent="0.2">
       <c r="E72" s="1"/>
     </row>
-    <row r="73" spans="5:5">
+    <row r="73" spans="1:9" x14ac:dyDescent="0.2">
       <c r="E73" s="1"/>
     </row>
-    <row r="74" spans="5:5">
+    <row r="74" spans="1:9" x14ac:dyDescent="0.2">
       <c r="E74" s="1"/>
     </row>
-    <row r="75" spans="5:5">
+    <row r="75" spans="1:9" x14ac:dyDescent="0.2">
       <c r="E75" s="1"/>
     </row>
-    <row r="76" spans="5:5">
+    <row r="76" spans="1:9" x14ac:dyDescent="0.2">
       <c r="E76" s="1"/>
     </row>
-    <row r="77" spans="5:5">
+    <row r="77" spans="1:9" x14ac:dyDescent="0.2">
       <c r="E77" s="1"/>
     </row>
-    <row r="78" spans="5:5">
+    <row r="78" spans="1:9" x14ac:dyDescent="0.2">
       <c r="E78" s="1"/>
     </row>
-    <row r="79" spans="5:5">
+    <row r="79" spans="1:9" x14ac:dyDescent="0.2">
       <c r="E79" s="1"/>
     </row>
-    <row r="80" spans="5:5">
+    <row r="80" spans="1:9" x14ac:dyDescent="0.2">
       <c r="E80" s="1"/>
     </row>
-    <row r="81" spans="5:5">
+    <row r="81" spans="5:5" x14ac:dyDescent="0.2">
       <c r="E81" s="1"/>
     </row>
-    <row r="82" spans="5:5">
+    <row r="82" spans="5:5" x14ac:dyDescent="0.2">
       <c r="E82" s="1"/>
     </row>
-    <row r="83" spans="5:5">
+    <row r="83" spans="5:5" x14ac:dyDescent="0.2">
       <c r="E83" s="1"/>
     </row>
-    <row r="84" spans="5:5">
+    <row r="84" spans="5:5" x14ac:dyDescent="0.2">
       <c r="E84" s="1"/>
     </row>
-    <row r="85" spans="5:5">
+    <row r="85" spans="5:5" x14ac:dyDescent="0.2">
       <c r="E85" s="1"/>
     </row>
-    <row r="86" spans="5:5">
+    <row r="86" spans="5:5" x14ac:dyDescent="0.2">
       <c r="E86" s="1"/>
     </row>
-    <row r="87" spans="5:5">
+    <row r="87" spans="5:5" x14ac:dyDescent="0.2">
       <c r="E87" s="1"/>
     </row>
-    <row r="88" spans="5:5">
+    <row r="88" spans="5:5" x14ac:dyDescent="0.2">
       <c r="E88" s="1"/>
     </row>
-    <row r="89" spans="5:5">
+    <row r="89" spans="5:5" x14ac:dyDescent="0.2">
       <c r="E89" s="1"/>
     </row>
-    <row r="90" spans="5:5">
+    <row r="90" spans="5:5" x14ac:dyDescent="0.2">
       <c r="E90" s="1"/>
     </row>
-    <row r="91" spans="5:5">
+    <row r="91" spans="5:5" x14ac:dyDescent="0.2">
       <c r="E91" s="1"/>
     </row>
-    <row r="92" spans="5:5">
+    <row r="92" spans="5:5" x14ac:dyDescent="0.2">
       <c r="E92" s="1"/>
     </row>
-    <row r="93" spans="5:5">
+    <row r="93" spans="5:5" x14ac:dyDescent="0.2">
       <c r="E93" s="1"/>
     </row>
-    <row r="94" spans="5:5">
+    <row r="94" spans="5:5" x14ac:dyDescent="0.2">
       <c r="E94" s="1"/>
     </row>
-    <row r="95" spans="5:5">
+    <row r="95" spans="5:5" x14ac:dyDescent="0.2">
       <c r="E95" s="1"/>
     </row>
-    <row r="96" spans="5:5">
+    <row r="96" spans="5:5" x14ac:dyDescent="0.2">
       <c r="E96" s="1"/>
     </row>
-    <row r="97" spans="5:5">
+    <row r="97" spans="5:5" x14ac:dyDescent="0.2">
       <c r="E97" s="1"/>
     </row>
-    <row r="98" spans="5:5">
+    <row r="98" spans="5:5" x14ac:dyDescent="0.2">
       <c r="E98" s="1"/>
     </row>
-    <row r="99" spans="5:5">
+    <row r="99" spans="5:5" x14ac:dyDescent="0.2">
       <c r="E99" s="1"/>
     </row>
-    <row r="100" spans="5:5">
+    <row r="100" spans="5:5" x14ac:dyDescent="0.2">
       <c r="E100" s="1"/>
     </row>
-    <row r="101" spans="5:5">
+    <row r="101" spans="5:5" x14ac:dyDescent="0.2">
       <c r="E101" s="1"/>
     </row>
-    <row r="102" spans="5:5">
+    <row r="102" spans="5:5" x14ac:dyDescent="0.2">
       <c r="E102" s="1"/>
     </row>
-    <row r="103" spans="5:5">
+    <row r="103" spans="5:5" x14ac:dyDescent="0.2">
       <c r="E103" s="1"/>
     </row>
-    <row r="104" spans="5:5">
+    <row r="104" spans="5:5" x14ac:dyDescent="0.2">
       <c r="E104" s="1"/>
     </row>
-    <row r="105" spans="5:5">
+    <row r="105" spans="5:5" x14ac:dyDescent="0.2">
       <c r="E105" s="1"/>
     </row>
-    <row r="106" spans="5:5">
+    <row r="106" spans="5:5" x14ac:dyDescent="0.2">
       <c r="E106" s="1"/>
     </row>
-    <row r="107" spans="5:5">
+    <row r="107" spans="5:5" x14ac:dyDescent="0.2">
       <c r="E107" s="1"/>
     </row>
-    <row r="108" spans="5:5">
+    <row r="108" spans="5:5" x14ac:dyDescent="0.2">
       <c r="E108" s="1"/>
     </row>
-    <row r="109" spans="5:5">
+    <row r="109" spans="5:5" x14ac:dyDescent="0.2">
       <c r="E109" s="1"/>
     </row>
-    <row r="110" spans="5:5">
+    <row r="110" spans="5:5" x14ac:dyDescent="0.2">
       <c r="E110" s="1"/>
     </row>
-    <row r="111" spans="5:5">
+    <row r="111" spans="5:5" x14ac:dyDescent="0.2">
       <c r="E111" s="1"/>
     </row>
-    <row r="112" spans="5:5">
+    <row r="112" spans="5:5" x14ac:dyDescent="0.2">
       <c r="E112" s="1"/>
     </row>
-    <row r="113" spans="5:5">
+    <row r="113" spans="5:5" x14ac:dyDescent="0.2">
       <c r="E113" s="1"/>
     </row>
-    <row r="114" spans="5:5">
+    <row r="114" spans="5:5" x14ac:dyDescent="0.2">
       <c r="E114" s="1"/>
     </row>
-    <row r="115" spans="5:5">
+    <row r="115" spans="5:5" x14ac:dyDescent="0.2">
       <c r="E115" s="1"/>
     </row>
-    <row r="116" spans="5:5">
+    <row r="116" spans="5:5" x14ac:dyDescent="0.2">
       <c r="E116" s="1"/>
     </row>
-    <row r="117" spans="5:5">
+    <row r="117" spans="5:5" x14ac:dyDescent="0.2">
       <c r="E117" s="1"/>
     </row>
-    <row r="118" spans="5:5">
+    <row r="118" spans="5:5" x14ac:dyDescent="0.2">
       <c r="E118" s="1"/>
     </row>
-    <row r="119" spans="5:5">
+    <row r="119" spans="5:5" x14ac:dyDescent="0.2">
       <c r="E119" s="1"/>
     </row>
-    <row r="120" spans="5:5">
+    <row r="120" spans="5:5" x14ac:dyDescent="0.2">
       <c r="E120" s="1"/>
     </row>
-    <row r="121" spans="5:5">
+    <row r="121" spans="5:5" x14ac:dyDescent="0.2">
       <c r="E121" s="1"/>
     </row>
-    <row r="122" spans="5:5">
+    <row r="122" spans="5:5" x14ac:dyDescent="0.2">
       <c r="E122" s="1"/>
     </row>
-    <row r="123" spans="5:5">
+    <row r="123" spans="5:5" x14ac:dyDescent="0.2">
       <c r="E123" s="1"/>
     </row>
-    <row r="124" spans="5:5">
+    <row r="124" spans="5:5" x14ac:dyDescent="0.2">
       <c r="E124" s="1"/>
     </row>
-    <row r="125" spans="5:5">
+    <row r="125" spans="5:5" x14ac:dyDescent="0.2">
       <c r="E125" s="1"/>
     </row>
-    <row r="126" spans="5:5">
+    <row r="126" spans="5:5" x14ac:dyDescent="0.2">
       <c r="E126" s="1"/>
     </row>
-    <row r="127" spans="5:5">
+    <row r="127" spans="5:5" x14ac:dyDescent="0.2">
       <c r="E127" s="1"/>
     </row>
-    <row r="128" spans="5:5">
+    <row r="128" spans="5:5" x14ac:dyDescent="0.2">
       <c r="E128" s="1"/>
     </row>
-    <row r="129" spans="5:5">
+    <row r="129" spans="5:5" x14ac:dyDescent="0.2">
       <c r="E129" s="1"/>
     </row>
-    <row r="130" spans="5:5">
+    <row r="130" spans="5:5" x14ac:dyDescent="0.2">
       <c r="E130" s="1"/>
     </row>
-    <row r="131" spans="5:5">
+    <row r="131" spans="5:5" x14ac:dyDescent="0.2">
       <c r="E131" s="1"/>
     </row>
-    <row r="132" spans="5:5">
+    <row r="132" spans="5:5" x14ac:dyDescent="0.2">
       <c r="E132" s="1"/>
     </row>
-    <row r="133" spans="5:5">
+    <row r="133" spans="5:5" x14ac:dyDescent="0.2">
       <c r="E133" s="1"/>
     </row>
-    <row r="134" spans="5:5">
+    <row r="134" spans="5:5" x14ac:dyDescent="0.2">
       <c r="E134" s="1"/>
     </row>
-    <row r="135" spans="5:5">
+    <row r="135" spans="5:5" x14ac:dyDescent="0.2">
       <c r="E135" s="1"/>
     </row>
-    <row r="136" spans="5:5">
+    <row r="136" spans="5:5" x14ac:dyDescent="0.2">
       <c r="E136" s="1"/>
     </row>
-    <row r="137" spans="5:5">
+    <row r="137" spans="5:5" x14ac:dyDescent="0.2">
       <c r="E137" s="1"/>
     </row>
-    <row r="138" spans="5:5">
+    <row r="138" spans="5:5" x14ac:dyDescent="0.2">
       <c r="E138" s="1"/>
     </row>
-    <row r="139" spans="5:5">
+    <row r="139" spans="5:5" x14ac:dyDescent="0.2">
       <c r="E139" s="1"/>
     </row>
-    <row r="140" spans="5:5">
+    <row r="140" spans="5:5" x14ac:dyDescent="0.2">
       <c r="E140" s="1"/>
     </row>
-    <row r="141" spans="5:5">
+    <row r="141" spans="5:5" x14ac:dyDescent="0.2">
       <c r="E141" s="1"/>
     </row>
-    <row r="142" spans="5:5">
+    <row r="142" spans="5:5" x14ac:dyDescent="0.2">
       <c r="E142" s="1"/>
     </row>
-    <row r="143" spans="5:5">
+    <row r="143" spans="5:5" x14ac:dyDescent="0.2">
       <c r="E143" s="1"/>
     </row>
-    <row r="144" spans="5:5">
+    <row r="144" spans="5:5" x14ac:dyDescent="0.2">
       <c r="E144" s="1"/>
     </row>
-    <row r="145" spans="5:5">
+    <row r="145" spans="5:5" x14ac:dyDescent="0.2">
       <c r="E145" s="1"/>
     </row>
-    <row r="146" spans="5:5">
+    <row r="146" spans="5:5" x14ac:dyDescent="0.2">
       <c r="E146" s="1"/>
     </row>
-    <row r="147" spans="5:5">
+    <row r="147" spans="5:5" x14ac:dyDescent="0.2">
       <c r="E147" s="1"/>
     </row>
-    <row r="148" spans="5:5">
+    <row r="148" spans="5:5" x14ac:dyDescent="0.2">
       <c r="E148" s="1"/>
     </row>
-    <row r="149" spans="5:5">
+    <row r="149" spans="5:5" x14ac:dyDescent="0.2">
       <c r="E149" s="1"/>
     </row>
-    <row r="150" spans="5:5">
+    <row r="150" spans="5:5" x14ac:dyDescent="0.2">
       <c r="E150" s="1"/>
     </row>
-    <row r="151" spans="5:5">
+    <row r="151" spans="5:5" x14ac:dyDescent="0.2">
       <c r="E151" s="1"/>
     </row>
-    <row r="152" spans="5:5">
+    <row r="152" spans="5:5" x14ac:dyDescent="0.2">
       <c r="E152" s="1"/>
     </row>
-    <row r="153" spans="5:5">
+    <row r="153" spans="5:5" x14ac:dyDescent="0.2">
       <c r="E153" s="1"/>
     </row>
-    <row r="154" spans="5:5">
+    <row r="154" spans="5:5" x14ac:dyDescent="0.2">
       <c r="E154" s="1"/>
     </row>
-    <row r="155" spans="5:5">
+    <row r="155" spans="5:5" x14ac:dyDescent="0.2">
       <c r="E155" s="1"/>
     </row>
-    <row r="156" spans="5:5">
+    <row r="156" spans="5:5" x14ac:dyDescent="0.2">
       <c r="E156" s="1"/>
     </row>
-    <row r="157" spans="5:5">
+    <row r="157" spans="5:5" x14ac:dyDescent="0.2">
       <c r="E157" s="1"/>
     </row>
-    <row r="158" spans="5:5">
+    <row r="158" spans="5:5" x14ac:dyDescent="0.2">
       <c r="E158" s="1"/>
     </row>
-    <row r="159" spans="5:5">
+    <row r="159" spans="5:5" x14ac:dyDescent="0.2">
       <c r="E159" s="1"/>
     </row>
-    <row r="160" spans="5:5">
+    <row r="160" spans="5:5" x14ac:dyDescent="0.2">
       <c r="E160" s="1"/>
     </row>
-    <row r="161" spans="5:5">
+    <row r="161" spans="5:5" x14ac:dyDescent="0.2">
       <c r="E161" s="1"/>
     </row>
-    <row r="162" spans="5:5">
+    <row r="162" spans="5:5" x14ac:dyDescent="0.2">
       <c r="E162" s="1"/>
     </row>
-    <row r="163" spans="5:5">
+    <row r="163" spans="5:5" x14ac:dyDescent="0.2">
       <c r="E163" s="1"/>
     </row>
-    <row r="164" spans="5:5">
+    <row r="164" spans="5:5" x14ac:dyDescent="0.2">
       <c r="E164" s="1"/>
     </row>
-    <row r="165" spans="5:5">
+    <row r="165" spans="5:5" x14ac:dyDescent="0.2">
       <c r="E165" s="1"/>
     </row>
-    <row r="166" spans="5:5">
+    <row r="166" spans="5:5" x14ac:dyDescent="0.2">
       <c r="E166" s="1"/>
     </row>
-    <row r="167" spans="5:5">
+    <row r="167" spans="5:5" x14ac:dyDescent="0.2">
       <c r="E167" s="1"/>
     </row>
-    <row r="168" spans="5:5">
+    <row r="168" spans="5:5" x14ac:dyDescent="0.2">
       <c r="E168" s="1"/>
     </row>
-    <row r="169" spans="5:5">
+    <row r="169" spans="5:5" x14ac:dyDescent="0.2">
       <c r="E169" s="1"/>
     </row>
-    <row r="170" spans="5:5">
+    <row r="170" spans="5:5" x14ac:dyDescent="0.2">
       <c r="E170" s="1"/>
     </row>
-    <row r="171" spans="5:5">
+    <row r="171" spans="5:5" x14ac:dyDescent="0.2">
       <c r="E171" s="1"/>
     </row>
-    <row r="172" spans="5:5">
+    <row r="172" spans="5:5" x14ac:dyDescent="0.2">
       <c r="E172" s="1"/>
     </row>
-    <row r="173" spans="5:5">
+    <row r="173" spans="5:5" x14ac:dyDescent="0.2">
       <c r="E173" s="1"/>
     </row>
-    <row r="174" spans="5:5">
+    <row r="174" spans="5:5" x14ac:dyDescent="0.2">
       <c r="E174" s="1"/>
     </row>
-    <row r="175" spans="5:5">
+    <row r="175" spans="5:5" x14ac:dyDescent="0.2">
       <c r="E175" s="1"/>
     </row>
-    <row r="176" spans="5:5">
+    <row r="176" spans="5:5" x14ac:dyDescent="0.2">
       <c r="E176" s="1"/>
     </row>
-    <row r="177" spans="5:5">
+    <row r="177" spans="5:5" x14ac:dyDescent="0.2">
       <c r="E177" s="1"/>
     </row>
-    <row r="178" spans="5:5">
+    <row r="178" spans="5:5" x14ac:dyDescent="0.2">
       <c r="E178" s="1"/>
     </row>
-    <row r="179" spans="5:5">
+    <row r="179" spans="5:5" x14ac:dyDescent="0.2">
       <c r="E179" s="1"/>
     </row>
-    <row r="180" spans="5:5">
+    <row r="180" spans="5:5" x14ac:dyDescent="0.2">
       <c r="E180" s="1"/>
     </row>
-    <row r="181" spans="5:5">
+    <row r="181" spans="5:5" x14ac:dyDescent="0.2">
       <c r="E181" s="1"/>
     </row>
-    <row r="182" spans="5:5">
+    <row r="182" spans="5:5" x14ac:dyDescent="0.2">
       <c r="E182" s="1"/>
     </row>
-    <row r="183" spans="5:5">
+    <row r="183" spans="5:5" x14ac:dyDescent="0.2">
       <c r="E183" s="1"/>
     </row>
-    <row r="184" spans="5:5">
+    <row r="184" spans="5:5" x14ac:dyDescent="0.2">
       <c r="E184" s="1"/>
     </row>
-    <row r="185" spans="5:5">
+    <row r="185" spans="5:5" x14ac:dyDescent="0.2">
       <c r="E185" s="1"/>
     </row>
-    <row r="186" spans="5:5">
+    <row r="186" spans="5:5" x14ac:dyDescent="0.2">
       <c r="E186" s="1"/>
     </row>
-    <row r="187" spans="5:5">
+    <row r="187" spans="5:5" x14ac:dyDescent="0.2">
       <c r="E187" s="1"/>
     </row>
-    <row r="188" spans="5:5">
+    <row r="188" spans="5:5" x14ac:dyDescent="0.2">
       <c r="E188" s="1"/>
     </row>
-    <row r="189" spans="5:5">
+    <row r="189" spans="5:5" x14ac:dyDescent="0.2">
       <c r="E189" s="1"/>
     </row>
-    <row r="190" spans="5:5">
+    <row r="190" spans="5:5" x14ac:dyDescent="0.2">
       <c r="E190" s="1"/>
     </row>
-    <row r="191" spans="5:5">
+    <row r="191" spans="5:5" x14ac:dyDescent="0.2">
       <c r="E191" s="1"/>
     </row>
-    <row r="192" spans="5:5">
+    <row r="192" spans="5:5" x14ac:dyDescent="0.2">
       <c r="E192" s="1"/>
     </row>
-    <row r="193" spans="5:5">
+    <row r="193" spans="5:5" x14ac:dyDescent="0.2">
       <c r="E193" s="1"/>
     </row>
-    <row r="194" spans="5:5">
+    <row r="194" spans="5:5" x14ac:dyDescent="0.2">
       <c r="E194" s="1"/>
     </row>
-    <row r="195" spans="5:5">
+    <row r="195" spans="5:5" x14ac:dyDescent="0.2">
       <c r="E195" s="1"/>
     </row>
-    <row r="196" spans="5:5">
+    <row r="196" spans="5:5" x14ac:dyDescent="0.2">
       <c r="E196" s="1"/>
     </row>
-    <row r="197" spans="5:5">
+    <row r="197" spans="5:5" x14ac:dyDescent="0.2">
       <c r="E197" s="1"/>
     </row>
-    <row r="198" spans="5:5">
+    <row r="198" spans="5:5" x14ac:dyDescent="0.2">
       <c r="E198" s="1"/>
     </row>
-    <row r="199" spans="5:5">
+    <row r="199" spans="5:5" x14ac:dyDescent="0.2">
       <c r="E199" s="1"/>
     </row>
-    <row r="200" spans="5:5">
+    <row r="200" spans="5:5" x14ac:dyDescent="0.2">
       <c r="E200" s="1"/>
     </row>
-    <row r="201" spans="5:5">
+    <row r="201" spans="5:5" x14ac:dyDescent="0.2">
       <c r="E201" s="1"/>
     </row>
-    <row r="202" spans="5:5">
+    <row r="202" spans="5:5" x14ac:dyDescent="0.2">
       <c r="E202" s="1"/>
     </row>
-    <row r="203" spans="5:5">
+    <row r="203" spans="5:5" x14ac:dyDescent="0.2">
       <c r="E203" s="1"/>
     </row>
-    <row r="204" spans="5:5">
+    <row r="204" spans="5:5" x14ac:dyDescent="0.2">
       <c r="E204" s="1"/>
     </row>
-    <row r="205" spans="5:5">
+    <row r="205" spans="5:5" x14ac:dyDescent="0.2">
       <c r="E205" s="1"/>
     </row>
-    <row r="206" spans="5:5">
+    <row r="206" spans="5:5" x14ac:dyDescent="0.2">
       <c r="E206" s="1"/>
     </row>
-    <row r="207" spans="5:5">
+    <row r="207" spans="5:5" x14ac:dyDescent="0.2">
       <c r="E207" s="1"/>
     </row>
-    <row r="208" spans="5:5">
+    <row r="208" spans="5:5" x14ac:dyDescent="0.2">
       <c r="E208" s="1"/>
     </row>
-    <row r="209" spans="5:5">
+    <row r="209" spans="5:5" x14ac:dyDescent="0.2">
       <c r="E209" s="1"/>
     </row>
-    <row r="210" spans="5:5">
+    <row r="210" spans="5:5" x14ac:dyDescent="0.2">
       <c r="E210" s="1"/>
     </row>
-    <row r="211" spans="5:5">
+    <row r="211" spans="5:5" x14ac:dyDescent="0.2">
       <c r="E211" s="1"/>
     </row>
-    <row r="212" spans="5:5">
+    <row r="212" spans="5:5" x14ac:dyDescent="0.2">
       <c r="E212" s="1"/>
     </row>
-    <row r="213" spans="5:5">
+    <row r="213" spans="5:5" x14ac:dyDescent="0.2">
       <c r="E213" s="1"/>
     </row>
-    <row r="214" spans="5:5">
+    <row r="214" spans="5:5" x14ac:dyDescent="0.2">
       <c r="E214" s="1"/>
     </row>
-    <row r="215" spans="5:5">
+    <row r="215" spans="5:5" x14ac:dyDescent="0.2">
       <c r="E215" s="1"/>
     </row>
-    <row r="216" spans="5:5">
+    <row r="216" spans="5:5" x14ac:dyDescent="0.2">
       <c r="E216" s="1"/>
     </row>
-    <row r="217" spans="5:5">
+    <row r="217" spans="5:5" x14ac:dyDescent="0.2">
       <c r="E217" s="1"/>
     </row>
-    <row r="218" spans="5:5">
+    <row r="218" spans="5:5" x14ac:dyDescent="0.2">
       <c r="E218" s="1"/>
     </row>
-    <row r="219" spans="5:5">
+    <row r="219" spans="5:5" x14ac:dyDescent="0.2">
       <c r="E219" s="1"/>
     </row>
-    <row r="220" spans="5:5">
+    <row r="220" spans="5:5" x14ac:dyDescent="0.2">
       <c r="E220" s="1"/>
     </row>
-    <row r="221" spans="5:5">
+    <row r="221" spans="5:5" x14ac:dyDescent="0.2">
       <c r="E221" s="1"/>
     </row>
-    <row r="222" spans="5:5">
+    <row r="222" spans="5:5" x14ac:dyDescent="0.2">
       <c r="E222" s="1"/>
     </row>
-    <row r="223" spans="5:5">
+    <row r="223" spans="5:5" x14ac:dyDescent="0.2">
       <c r="E223" s="1"/>
     </row>
-    <row r="224" spans="5:5">
+    <row r="224" spans="5:5" x14ac:dyDescent="0.2">
       <c r="E224" s="1"/>
     </row>
-    <row r="225" spans="5:5">
+    <row r="225" spans="5:5" x14ac:dyDescent="0.2">
       <c r="E225" s="1"/>
     </row>
-    <row r="226" spans="5:5">
+    <row r="226" spans="5:5" x14ac:dyDescent="0.2">
       <c r="E226" s="1"/>
     </row>
-    <row r="227" spans="5:5">
+    <row r="227" spans="5:5" x14ac:dyDescent="0.2">
       <c r="E227" s="1"/>
     </row>
-    <row r="228" spans="5:5">
+    <row r="228" spans="5:5" x14ac:dyDescent="0.2">
       <c r="E228" s="1"/>
     </row>
-    <row r="229" spans="5:5">
+    <row r="229" spans="5:5" x14ac:dyDescent="0.2">
       <c r="E229" s="1"/>
     </row>
-    <row r="230" spans="5:5">
+    <row r="230" spans="5:5" x14ac:dyDescent="0.2">
       <c r="E230" s="1"/>
     </row>
-    <row r="231" spans="5:5">
+    <row r="231" spans="5:5" x14ac:dyDescent="0.2">
       <c r="E231" s="1"/>
     </row>
-    <row r="232" spans="5:5">
+    <row r="232" spans="5:5" x14ac:dyDescent="0.2">
       <c r="E232" s="1"/>
     </row>
-    <row r="233" spans="5:5">
+    <row r="233" spans="5:5" x14ac:dyDescent="0.2">
       <c r="E233" s="1"/>
     </row>
-    <row r="234" spans="5:5">
+    <row r="234" spans="5:5" x14ac:dyDescent="0.2">
       <c r="E234" s="1"/>
     </row>
-    <row r="235" spans="5:5">
+    <row r="235" spans="5:5" x14ac:dyDescent="0.2">
       <c r="E235" s="1"/>
     </row>
-    <row r="236" spans="5:5">
+    <row r="236" spans="5:5" x14ac:dyDescent="0.2">
       <c r="E236" s="1"/>
     </row>
-    <row r="237" spans="5:5">
+    <row r="237" spans="5:5" x14ac:dyDescent="0.2">
       <c r="E237" s="1"/>
     </row>
-    <row r="238" spans="5:5">
+    <row r="238" spans="5:5" x14ac:dyDescent="0.2">
       <c r="E238" s="1"/>
     </row>
-    <row r="239" spans="5:5">
+    <row r="239" spans="5:5" x14ac:dyDescent="0.2">
       <c r="E239" s="1"/>
     </row>
-    <row r="240" spans="5:5">
+    <row r="240" spans="5:5" x14ac:dyDescent="0.2">
       <c r="E240" s="1"/>
     </row>
-    <row r="241" spans="5:5">
+    <row r="241" spans="5:5" x14ac:dyDescent="0.2">
       <c r="E241" s="1"/>
     </row>
-    <row r="242" spans="5:5">
+    <row r="242" spans="5:5" x14ac:dyDescent="0.2">
       <c r="E242" s="1"/>
     </row>
-    <row r="243" spans="5:5">
+    <row r="243" spans="5:5" x14ac:dyDescent="0.2">
       <c r="E243" s="1"/>
     </row>
-    <row r="244" spans="5:5">
+    <row r="244" spans="5:5" x14ac:dyDescent="0.2">
       <c r="E244" s="1"/>
     </row>
-    <row r="245" spans="5:5">
+    <row r="245" spans="5:5" x14ac:dyDescent="0.2">
       <c r="E245" s="1"/>
     </row>
-    <row r="246" spans="5:5">
+    <row r="246" spans="5:5" x14ac:dyDescent="0.2">
       <c r="E246" s="1"/>
     </row>
-    <row r="247" spans="5:5">
+    <row r="247" spans="5:5" x14ac:dyDescent="0.2">
       <c r="E247" s="1"/>
     </row>
-    <row r="248" spans="5:5">
+    <row r="248" spans="5:5" x14ac:dyDescent="0.2">
       <c r="E248" s="1"/>
     </row>
-    <row r="249" spans="5:5">
+    <row r="249" spans="5:5" x14ac:dyDescent="0.2">
       <c r="E249" s="1"/>
     </row>
-    <row r="250" spans="5:5">
+    <row r="250" spans="5:5" x14ac:dyDescent="0.2">
       <c r="E250" s="1"/>
     </row>
-    <row r="251" spans="5:5">
+    <row r="251" spans="5:5" x14ac:dyDescent="0.2">
       <c r="E251" s="1"/>
     </row>
-    <row r="252" spans="5:5">
+    <row r="252" spans="5:5" x14ac:dyDescent="0.2">
       <c r="E252" s="1"/>
     </row>
-    <row r="253" spans="5:5">
+    <row r="253" spans="5:5" x14ac:dyDescent="0.2">
       <c r="E253" s="1"/>
     </row>
-    <row r="254" spans="5:5">
+    <row r="254" spans="5:5" x14ac:dyDescent="0.2">
       <c r="E254" s="1"/>
     </row>
-    <row r="255" spans="5:5">
+    <row r="255" spans="5:5" x14ac:dyDescent="0.2">
       <c r="E255" s="1"/>
     </row>
-    <row r="256" spans="5:5">
+    <row r="256" spans="5:5" x14ac:dyDescent="0.2">
       <c r="E256" s="1"/>
     </row>
-    <row r="257" spans="5:5">
+    <row r="257" spans="5:5" x14ac:dyDescent="0.2">
       <c r="E257" s="1"/>
     </row>
-    <row r="258" spans="5:5">
+    <row r="258" spans="5:5" x14ac:dyDescent="0.2">
       <c r="E258" s="1"/>
     </row>
-    <row r="259" spans="5:5">
+    <row r="259" spans="5:5" x14ac:dyDescent="0.2">
       <c r="E259" s="1"/>
     </row>
-    <row r="260" spans="5:5">
+    <row r="260" spans="5:5" x14ac:dyDescent="0.2">
       <c r="E260" s="1"/>
     </row>
-    <row r="261" spans="5:5">
+    <row r="261" spans="5:5" x14ac:dyDescent="0.2">
       <c r="E261" s="1"/>
     </row>
-    <row r="262" spans="5:5">
+    <row r="262" spans="5:5" x14ac:dyDescent="0.2">
       <c r="E262" s="1"/>
     </row>
-    <row r="263" spans="5:5">
+    <row r="263" spans="5:5" x14ac:dyDescent="0.2">
       <c r="E263" s="1"/>
     </row>
-    <row r="264" spans="5:5">
+    <row r="264" spans="5:5" x14ac:dyDescent="0.2">
       <c r="E264" s="1"/>
     </row>
-    <row r="265" spans="5:5">
+    <row r="265" spans="5:5" x14ac:dyDescent="0.2">
       <c r="E265" s="1"/>
     </row>
-    <row r="266" spans="5:5">
+    <row r="266" spans="5:5" x14ac:dyDescent="0.2">
       <c r="E266" s="1"/>
     </row>
-    <row r="267" spans="5:5">
+    <row r="267" spans="5:5" x14ac:dyDescent="0.2">
       <c r="E267" s="1"/>
     </row>
-    <row r="268" spans="5:5">
+    <row r="268" spans="5:5" x14ac:dyDescent="0.2">
       <c r="E268" s="1"/>
     </row>
-    <row r="269" spans="5:5">
+    <row r="269" spans="5:5" x14ac:dyDescent="0.2">
       <c r="E269" s="1"/>
     </row>
-    <row r="270" spans="5:5">
+    <row r="270" spans="5:5" x14ac:dyDescent="0.2">
       <c r="E270" s="1"/>
     </row>
-    <row r="271" spans="5:5">
+    <row r="271" spans="5:5" x14ac:dyDescent="0.2">
       <c r="E271" s="1"/>
     </row>
-    <row r="272" spans="5:5">
+    <row r="272" spans="5:5" x14ac:dyDescent="0.2">
       <c r="E272" s="1"/>
     </row>
-    <row r="273" spans="5:5">
+    <row r="273" spans="5:5" x14ac:dyDescent="0.2">
       <c r="E273" s="1"/>
     </row>
-    <row r="274" spans="5:5">
+    <row r="274" spans="5:5" x14ac:dyDescent="0.2">
       <c r="E274" s="1"/>
     </row>
-    <row r="275" spans="5:5">
+    <row r="275" spans="5:5" x14ac:dyDescent="0.2">
       <c r="E275" s="1"/>
     </row>
-    <row r="276" spans="5:5">
+    <row r="276" spans="5:5" x14ac:dyDescent="0.2">
       <c r="E276" s="1"/>
     </row>
-    <row r="277" spans="5:5">
+    <row r="277" spans="5:5" x14ac:dyDescent="0.2">
       <c r="E277" s="1"/>
     </row>
-    <row r="278" spans="5:5">
+    <row r="278" spans="5:5" x14ac:dyDescent="0.2">
       <c r="E278" s="1"/>
     </row>
-    <row r="279" spans="5:5">
+    <row r="279" spans="5:5" x14ac:dyDescent="0.2">
       <c r="E279" s="1"/>
     </row>
-    <row r="280" spans="5:5">
+    <row r="280" spans="5:5" x14ac:dyDescent="0.2">
       <c r="E280" s="1"/>
     </row>
-    <row r="281" spans="5:5">
+    <row r="281" spans="5:5" x14ac:dyDescent="0.2">
       <c r="E281" s="1"/>
     </row>
-    <row r="282" spans="5:5">
+    <row r="282" spans="5:5" x14ac:dyDescent="0.2">
       <c r="E282" s="1"/>
     </row>
-    <row r="283" spans="5:5">
+    <row r="283" spans="5:5" x14ac:dyDescent="0.2">
       <c r="E283" s="1"/>
     </row>
-    <row r="284" spans="5:5">
+    <row r="284" spans="5:5" x14ac:dyDescent="0.2">
       <c r="E284" s="1"/>
     </row>
-    <row r="285" spans="5:5">
+    <row r="285" spans="5:5" x14ac:dyDescent="0.2">
       <c r="E285" s="1"/>
     </row>
-    <row r="286" spans="5:5">
+    <row r="286" spans="5:5" x14ac:dyDescent="0.2">
       <c r="E286" s="1"/>
     </row>
-    <row r="287" spans="5:5">
+    <row r="287" spans="5:5" x14ac:dyDescent="0.2">
       <c r="E287" s="1"/>
     </row>
-    <row r="288" spans="5:5">
+    <row r="288" spans="5:5" x14ac:dyDescent="0.2">
       <c r="E288" s="1"/>
     </row>
-    <row r="289" spans="5:5">
+    <row r="289" spans="5:5" x14ac:dyDescent="0.2">
       <c r="E289" s="1"/>
     </row>
-    <row r="290" spans="5:5">
+    <row r="290" spans="5:5" x14ac:dyDescent="0.2">
       <c r="E290" s="1"/>
     </row>
-    <row r="291" spans="5:5">
+    <row r="291" spans="5:5" x14ac:dyDescent="0.2">
       <c r="E291" s="1"/>
     </row>
-    <row r="292" spans="5:5">
+    <row r="292" spans="5:5" x14ac:dyDescent="0.2">
       <c r="E292" s="1"/>
     </row>
-    <row r="293" spans="5:5">
+    <row r="293" spans="5:5" x14ac:dyDescent="0.2">
       <c r="E293" s="1"/>
     </row>
-    <row r="294" spans="5:5">
+    <row r="294" spans="5:5" x14ac:dyDescent="0.2">
       <c r="E294" s="1"/>
     </row>
-    <row r="295" spans="5:5">
+    <row r="295" spans="5:5" x14ac:dyDescent="0.2">
       <c r="E295" s="1"/>
     </row>
-    <row r="296" spans="5:5">
+    <row r="296" spans="5:5" x14ac:dyDescent="0.2">
       <c r="E296" s="1"/>
     </row>
-    <row r="297" spans="5:5">
+    <row r="297" spans="5:5" x14ac:dyDescent="0.2">
       <c r="E297" s="1"/>
     </row>
-    <row r="298" spans="5:5">
+    <row r="298" spans="5:5" x14ac:dyDescent="0.2">
       <c r="E298" s="1"/>
     </row>
-    <row r="299" spans="5:5">
+    <row r="299" spans="5:5" x14ac:dyDescent="0.2">
       <c r="E299" s="1"/>
     </row>
-    <row r="300" spans="5:5">
+    <row r="300" spans="5:5" x14ac:dyDescent="0.2">
       <c r="E300" s="1"/>
     </row>
-    <row r="301" spans="5:5">
+    <row r="301" spans="5:5" x14ac:dyDescent="0.2">
       <c r="E301" s="1"/>
     </row>
-    <row r="302" spans="5:5">
+    <row r="302" spans="5:5" x14ac:dyDescent="0.2">
       <c r="E302" s="1"/>
     </row>
-    <row r="303" spans="5:5">
+    <row r="303" spans="5:5" x14ac:dyDescent="0.2">
       <c r="E303" s="1"/>
     </row>
-    <row r="304" spans="5:5">
+    <row r="304" spans="5:5" x14ac:dyDescent="0.2">
       <c r="E304" s="1"/>
     </row>
-    <row r="305" spans="5:5">
+    <row r="305" spans="5:5" x14ac:dyDescent="0.2">
       <c r="E305" s="1"/>
     </row>
-    <row r="306" spans="5:5">
+    <row r="306" spans="5:5" x14ac:dyDescent="0.2">
       <c r="E306" s="1"/>
     </row>
-    <row r="307" spans="5:5">
+    <row r="307" spans="5:5" x14ac:dyDescent="0.2">
       <c r="E307" s="1"/>
     </row>
-    <row r="308" spans="5:5">
+    <row r="308" spans="5:5" x14ac:dyDescent="0.2">
       <c r="E308" s="1"/>
     </row>
-    <row r="309" spans="5:5">
+    <row r="309" spans="5:5" x14ac:dyDescent="0.2">
       <c r="E309" s="1"/>
     </row>
-    <row r="310" spans="5:5">
+    <row r="310" spans="5:5" x14ac:dyDescent="0.2">
       <c r="E310" s="1"/>
     </row>
-    <row r="311" spans="5:5">
+    <row r="311" spans="5:5" x14ac:dyDescent="0.2">
       <c r="E311" s="1"/>
     </row>
-    <row r="312" spans="5:5">
+    <row r="312" spans="5:5" x14ac:dyDescent="0.2">
       <c r="E312" s="1"/>
     </row>
-    <row r="313" spans="5:5">
+    <row r="313" spans="5:5" x14ac:dyDescent="0.2">
       <c r="E313" s="1"/>
     </row>
-    <row r="314" spans="5:5">
+    <row r="314" spans="5:5" x14ac:dyDescent="0.2">
       <c r="E314" s="1"/>
     </row>
-    <row r="315" spans="5:5">
+    <row r="315" spans="5:5" x14ac:dyDescent="0.2">
       <c r="E315" s="1"/>
     </row>
   </sheetData>
@@ -3787,8 +3876,10 @@
     <hyperlink ref="I57" r:id="rId60" xr:uid="{47C7BB20-97C2-4BBD-9294-458BED94577E}"/>
     <hyperlink ref="I58" r:id="rId61" xr:uid="{3B4ACFB8-DB26-4899-AECE-58DE6B6C5487}"/>
     <hyperlink ref="I62" r:id="rId62" xr:uid="{B7F0DBA1-D3F8-4692-8FC9-76E2B4652963}"/>
+    <hyperlink ref="I64" r:id="rId63" display="https://res.cloudinary.com/dkktirn06/image/upload/v1668800637/LOW RES SPMK CATALOG/BECKER-GOLDEN-LATA-473-X6_qzt6rn.png" xr:uid="{3FD22EEC-DEFD-7E41-8E40-AB2A14697347}"/>
+    <hyperlink ref="I65" r:id="rId64" display="https://res.cloudinary.com/dkktirn06/image/upload/v1668798717/LOW RES SPMK CATALOG/unitario-becker-golden_unok7b.png" xr:uid="{17A29EDB-CDE3-B241-8BC6-81E9350DCC96}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <legacyDrawing r:id="rId63"/>
+  <legacyDrawing r:id="rId65"/>
 </worksheet>
 </file>